--- a/biology/Virologie/Virus_T_de_la_pomme_de_terre/Virus_T_de_la_pomme_de_terre.xlsx
+++ b/biology/Virologie/Virus_T_de_la_pomme_de_terre/Virus_T_de_la_pomme_de_terre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Potato virus T
-Le virus T de la pomme de terre (PVT, acronyme de Potato virus T), est une espèce de phytovirus pathogènes du genre Tepovirus (dont il est l'espèce type)[2], appartenant à la famille des Betaflexiviridae. 
+Le virus T de la pomme de terre (PVT, acronyme de Potato virus T), est une espèce de phytovirus pathogènes du genre Tepovirus (dont il est l'espèce type), appartenant à la famille des Betaflexiviridae. 
 La distribution de ce virus, découvert au Pérou en 1977 dans des tubercules de pommes de terre, est limitée aux régions andines de l'Amérique du Sud.
 Outre la pomme de terre, ses hôtes comprennent de nombreuses Solanaceae, dont le Datura stramoine et le tabac commun, et diverses espèces des familles  des Amaranthaceae, Apocynaceae, Caryophyllaceae, Chenopodiaceae et Fabaceae. 
 Le virus T se transmet par inoculation mécanique, mais pas par contact direct entre plantes. Chez les Solanaceae, il se transmet facilement par les graines et par le pollen. Chez la pomme de terre, l'infection se diffuse dans les tubercules.
